--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_11_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1713610.937992113</v>
+        <v>1658659.048708017</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013175</v>
+        <v>408938.3872013174</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11497228.11079586</v>
+        <v>11497228.11079585</v>
       </c>
     </row>
     <row r="9">
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>258.0413244937849</v>
       </c>
       <c r="E11" t="n">
-        <v>355.7134668821562</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>403.1992496400135</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,25 +1451,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.59641470936459</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>87.23507999339924</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>223.3842861340256</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>52.42857711587115</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>123.14340038001</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>45.92828264489582</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>104.0024271027437</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>130.2646119085749</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
         <v>237.1773944157285</v>
@@ -1748,7 +1748,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>37.66165428630486</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.42805983116364</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>76.53519509961433</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>14.60468437751696</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>142.0125328254712</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -1979,19 +1979,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>15.71916615484799</v>
+        <v>15.59403752535506</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2049,10 +2049,10 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.253023459091131</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2101074720030162</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>207.0716324031966</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>256.4441217015117</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -2162,19 +2162,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>117.3334272680828</v>
       </c>
       <c r="D21" t="n">
-        <v>38.44565182184007</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>177.283526739121</v>
@@ -2219,13 +2219,13 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>129.4825785166958</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>73.35340349906457</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.1639724458418</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>35.7304347315126</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>176.8883409954547</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -2402,16 +2402,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>117.6320838744861</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>21.28457206481518</v>
       </c>
       <c r="S24" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>131.0804113283488</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>123.14340038001</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>218.579758205472</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>176.9693758165089</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>3.329915919761465</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2690,13 +2690,13 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1773944157285</v>
+        <v>92.48496622951743</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>123.14340038001</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>158.6107100818744</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547735</v>
+        <v>54.7429572757181</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>204.7418097272718</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2876,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>53.45081096892568</v>
       </c>
       <c r="W30" t="n">
-        <v>144.8407193933332</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>75.61813689207855</v>
       </c>
       <c r="S31" t="n">
-        <v>2.474840865017023</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>112.7217632601213</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.1639724458418</v>
@@ -3088,13 +3088,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>240.4660086744112</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9743432409925</v>
+        <v>91.88996575258736</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>237.1773944157285</v>
@@ -3170,13 +3170,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>8.373183778872866</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>73.35340349906456</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>50.00010435294849</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>371.4789120616362</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>105.0678544380275</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>4.216722594182776</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>3.808407937252527</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -3362,7 +3362,7 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3407,10 +3407,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>14.32501013152857</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.916258666856967</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>73.35340349906456</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>187.0583237709602</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>119.7132633034001</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -3584,16 +3584,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3.727105734423673</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>147.9743432409925</v>
@@ -3635,19 +3635,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>15.71916615484777</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>158.6107100818744</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>131.0804113283488</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>188.9625998440368</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>238.0051730894884</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>143.4660897531999</v>
+        <v>51.23589049740843</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.58429473553586</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>85.46741405481289</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>54.89828378116018</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>269.0562111640176</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.5813409780641</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -4067,13 +4067,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>38.04813570318086</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8662302997449</v>
+        <v>76.21556388789844</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>137.4545982671966</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>52.4285771158712</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>988.2760455058769</v>
+        <v>1391.611649177659</v>
       </c>
       <c r="C11" t="n">
-        <v>988.2760455058769</v>
+        <v>1037.868722530004</v>
       </c>
       <c r="D11" t="n">
-        <v>988.2760455058769</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="E11" t="n">
-        <v>628.9695133016787</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="F11" t="n">
-        <v>221.6975439683318</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G11" t="n">
-        <v>221.6975439683318</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444515</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602982</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K11" t="n">
         <v>253.8975067193749</v>
@@ -5077,16 +5077,16 @@
         <v>1715.732642722257</v>
       </c>
       <c r="V11" t="n">
-        <v>1715.732642722257</v>
+        <v>1391.611649177659</v>
       </c>
       <c r="W11" t="n">
-        <v>1374.423083302291</v>
+        <v>1391.611649177659</v>
       </c>
       <c r="X11" t="n">
-        <v>1374.423083302291</v>
+        <v>1391.611649177659</v>
       </c>
       <c r="Y11" t="n">
-        <v>988.2760455058769</v>
+        <v>1391.611649177659</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611.1937644001396</v>
+        <v>439.006942030505</v>
       </c>
       <c r="C12" t="n">
-        <v>421.7814901331033</v>
+        <v>439.006942030505</v>
       </c>
       <c r="D12" t="n">
-        <v>261.001373894135</v>
+        <v>439.006942030505</v>
       </c>
       <c r="E12" t="n">
-        <v>261.001373894135</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="F12" t="n">
-        <v>100.5736576113791</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G12" t="n">
-        <v>100.5736576113791</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H12" t="n">
-        <v>100.5736576113791</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I12" t="n">
         <v>34.31465285444515</v>
@@ -5126,19 +5126,19 @@
         <v>215.5091216889813</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6946924676437</v>
+        <v>395.2338702498411</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207051</v>
+        <v>770.1254798029025</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722257</v>
@@ -5147,25 +5147,25 @@
         <v>1627.958867440572</v>
       </c>
       <c r="S12" t="n">
-        <v>1448.884598007116</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T12" t="n">
-        <v>1234.878304775051</v>
+        <v>1413.952574208506</v>
       </c>
       <c r="U12" t="n">
-        <v>1234.878304775051</v>
+        <v>1174.379448536053</v>
       </c>
       <c r="V12" t="n">
-        <v>1234.878304775051</v>
+        <v>931.2997304396874</v>
       </c>
       <c r="W12" t="n">
-        <v>1234.878304775051</v>
+        <v>843.1834880221124</v>
       </c>
       <c r="X12" t="n">
-        <v>1015.370310391747</v>
+        <v>843.1834880221124</v>
       </c>
       <c r="Y12" t="n">
-        <v>789.7296173270747</v>
+        <v>617.54279495744</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C13" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D13" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E13" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F13" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G13" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H13" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I13" t="n">
         <v>34.31465285444515</v>
@@ -5223,28 +5223,28 @@
         <v>334.857675380022</v>
       </c>
       <c r="R13" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="S13" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="T13" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="U13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="V13" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="W13" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="X13" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1050.584219631687</v>
+        <v>729.2415791407141</v>
       </c>
       <c r="C14" t="n">
-        <v>1050.584219631687</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="D14" t="n">
-        <v>1050.584219631687</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E14" t="n">
-        <v>1050.584219631687</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F14" t="n">
-        <v>643.3122502983404</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I14" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602982</v>
       </c>
       <c r="K14" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389717</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M14" t="n">
         <v>856.6460009292778</v>
@@ -5299,31 +5299,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q14" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1715.732642722257</v>
+        <v>1669.340438030444</v>
       </c>
       <c r="S14" t="n">
-        <v>1519.054059427091</v>
+        <v>1669.340438030444</v>
       </c>
       <c r="T14" t="n">
-        <v>1519.054059427091</v>
+        <v>1669.340438030444</v>
       </c>
       <c r="U14" t="n">
-        <v>1519.054059427091</v>
+        <v>1416.779455811278</v>
       </c>
       <c r="V14" t="n">
-        <v>1414.001102757653</v>
+        <v>1092.65846226668</v>
       </c>
       <c r="W14" t="n">
-        <v>1414.001102757653</v>
+        <v>1092.65846226668</v>
       </c>
       <c r="X14" t="n">
-        <v>1050.584219631687</v>
+        <v>729.2415791407141</v>
       </c>
       <c r="Y14" t="n">
-        <v>1050.584219631687</v>
+        <v>729.2415791407141</v>
       </c>
     </row>
     <row r="15">
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>339.4582728022983</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="C15" t="n">
-        <v>339.4582728022983</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="D15" t="n">
-        <v>207.8778567330307</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="E15" t="n">
-        <v>34.31465285444515</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="F15" t="n">
-        <v>34.31465285444515</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G15" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H15" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I15" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.40930111025866</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889814</v>
+        <v>215.5091216889813</v>
       </c>
       <c r="L15" t="n">
         <v>498.4142537443595</v>
@@ -5369,40 +5369,40 @@
         <v>873.305863297421</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.820066520716</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O15" t="n">
-        <v>1395.95310056761</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P15" t="n">
         <v>1625.19346494006</v>
       </c>
       <c r="Q15" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S15" t="n">
-        <v>1536.658373288802</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T15" t="n">
-        <v>1536.658373288802</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U15" t="n">
-        <v>1297.085247616349</v>
+        <v>1262.153223817739</v>
       </c>
       <c r="V15" t="n">
-        <v>1054.005529519983</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W15" t="n">
-        <v>784.6069602502743</v>
+        <v>981.0314306847019</v>
       </c>
       <c r="X15" t="n">
-        <v>565.0989658669706</v>
+        <v>761.5234363013983</v>
       </c>
       <c r="Y15" t="n">
-        <v>339.4582728022983</v>
+        <v>535.8827432367259</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.31465285444515</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="C16" t="n">
-        <v>34.31465285444515</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="D16" t="n">
-        <v>34.31465285444515</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E16" t="n">
-        <v>34.31465285444515</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F16" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G16" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L16" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O16" t="n">
         <v>315.4306320098955</v>
@@ -5457,31 +5457,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.857675380022</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="R16" t="n">
-        <v>334.857675380022</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="S16" t="n">
-        <v>334.857675380022</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="T16" t="n">
-        <v>111.6229307328435</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="U16" t="n">
-        <v>111.6229307328435</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="V16" t="n">
-        <v>111.6229307328435</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="W16" t="n">
-        <v>111.6229307328435</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="X16" t="n">
-        <v>34.31465285444515</v>
+        <v>321.2939785808668</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.31465285444515</v>
+        <v>321.2939785808668</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>745.1801749823653</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="C17" t="n">
-        <v>745.1801749823653</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="D17" t="n">
-        <v>745.1801749823653</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="E17" t="n">
         <v>369.9489506776823</v>
@@ -5521,13 +5521,13 @@
         <v>253.897506719375</v>
       </c>
       <c r="L17" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389717</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N17" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O17" t="n">
         <v>1460.632785841149</v>
@@ -5539,28 +5539,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R17" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S17" t="n">
-        <v>1519.054059427092</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T17" t="n">
-        <v>1519.054059427092</v>
+        <v>1398.796386768212</v>
       </c>
       <c r="U17" t="n">
-        <v>1266.493077207926</v>
+        <v>1398.796386768212</v>
       </c>
       <c r="V17" t="n">
-        <v>1123.046074353914</v>
+        <v>1074.675393223614</v>
       </c>
       <c r="W17" t="n">
-        <v>1123.046074353914</v>
+        <v>733.365833803648</v>
       </c>
       <c r="X17" t="n">
-        <v>1123.046074353914</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="Y17" t="n">
-        <v>1123.046074353914</v>
+        <v>369.9489506776823</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>504.9915189529294</v>
+        <v>707.186880859583</v>
       </c>
       <c r="C18" t="n">
-        <v>504.9915189529294</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="D18" t="n">
-        <v>344.2114027139611</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="E18" t="n">
         <v>344.2114027139611</v>
@@ -5597,19 +5597,19 @@
         <v>54.40930111025867</v>
       </c>
       <c r="K18" t="n">
-        <v>54.40930111025867</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L18" t="n">
-        <v>337.3144331656368</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M18" t="n">
-        <v>712.2060427186984</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N18" t="n">
-        <v>1115.43980721871</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O18" t="n">
-        <v>1428.572841265604</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P18" t="n">
         <v>1625.19346494006</v>
@@ -5627,19 +5627,19 @@
         <v>1413.952574208507</v>
       </c>
       <c r="U18" t="n">
-        <v>1398.074628597549</v>
+        <v>1398.201021152593</v>
       </c>
       <c r="V18" t="n">
-        <v>1398.074628597549</v>
+        <v>1155.121303056227</v>
       </c>
       <c r="W18" t="n">
-        <v>1128.67605932784</v>
+        <v>885.7227337865181</v>
       </c>
       <c r="X18" t="n">
-        <v>909.1680649445368</v>
+        <v>885.7227337865181</v>
       </c>
       <c r="Y18" t="n">
-        <v>683.5273718798644</v>
+        <v>885.7227337865181</v>
       </c>
     </row>
     <row r="19">
@@ -5697,25 +5697,25 @@
         <v>260.97555818097</v>
       </c>
       <c r="R19" t="n">
-        <v>260.97555818097</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="S19" t="n">
-        <v>34.52688262414517</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="T19" t="n">
-        <v>34.52688262414517</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="U19" t="n">
-        <v>34.52688262414517</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="V19" t="n">
-        <v>34.52688262414517</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="W19" t="n">
-        <v>34.31465285444516</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="X19" t="n">
-        <v>34.31465285444516</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="Y19" t="n">
         <v>34.31465285444516</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1204.385328156414</v>
+        <v>988.2760455058774</v>
       </c>
       <c r="C20" t="n">
-        <v>1204.385328156414</v>
+        <v>634.533118858222</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2013285178008</v>
+        <v>293.3491192196086</v>
       </c>
       <c r="E20" t="n">
-        <v>863.2013285178008</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F20" t="n">
-        <v>455.9293591844538</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G20" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H20" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
         <v>79.26440887602973</v>
@@ -5773,31 +5773,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505314</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.548593210148</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T20" t="n">
-        <v>1413.548593210148</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U20" t="n">
-        <v>1413.548593210148</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V20" t="n">
-        <v>1413.548593210148</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W20" t="n">
-        <v>1413.548593210148</v>
+        <v>1374.423083302291</v>
       </c>
       <c r="X20" t="n">
-        <v>1413.548593210148</v>
+        <v>1374.423083302291</v>
       </c>
       <c r="Y20" t="n">
-        <v>1413.548593210148</v>
+        <v>988.2760455058774</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.14864459367755</v>
+        <v>623.5101323550332</v>
       </c>
       <c r="C21" t="n">
-        <v>73.14864459367755</v>
+        <v>504.9915189529294</v>
       </c>
       <c r="D21" t="n">
-        <v>34.31465285444515</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="E21" t="n">
-        <v>34.31465285444515</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F21" t="n">
-        <v>34.31465285444515</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G21" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H21" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>54.40930111025866</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K21" t="n">
-        <v>215.5091216889814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L21" t="n">
-        <v>498.4142537443595</v>
+        <v>317.2197849098233</v>
       </c>
       <c r="M21" t="n">
-        <v>873.305863297421</v>
+        <v>679.5863020207054</v>
       </c>
       <c r="N21" t="n">
         <v>1082.820066520716</v>
@@ -5852,31 +5852,31 @@
         <v>1625.19346494006</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S21" t="n">
-        <v>1448.884598007116</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T21" t="n">
-        <v>1448.884598007116</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="U21" t="n">
-        <v>1209.311472334663</v>
+        <v>1297.085247616349</v>
       </c>
       <c r="V21" t="n">
-        <v>966.2317542382973</v>
+        <v>1297.085247616349</v>
       </c>
       <c r="W21" t="n">
-        <v>696.8331849685886</v>
+        <v>1027.686678346641</v>
       </c>
       <c r="X21" t="n">
-        <v>477.325190585285</v>
+        <v>1027.686678346641</v>
       </c>
       <c r="Y21" t="n">
-        <v>251.6844975206126</v>
+        <v>802.0459852819683</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="C22" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="D22" t="n">
-        <v>34.31465285444515</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="E22" t="n">
-        <v>34.31465285444515</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="F22" t="n">
-        <v>34.31465285444515</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="G22" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H22" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I22" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J22" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
         <v>42.2304192451457</v>
@@ -5937,25 +5937,25 @@
         <v>334.857675380022</v>
       </c>
       <c r="S22" t="n">
-        <v>108.4089998231972</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T22" t="n">
-        <v>108.4089998231972</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U22" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V22" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W22" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X22" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>409.5458771591282</v>
+        <v>932.5630660962519</v>
       </c>
       <c r="C23" t="n">
-        <v>409.5458771591282</v>
+        <v>932.5630660962519</v>
       </c>
       <c r="D23" t="n">
-        <v>409.5458771591282</v>
+        <v>932.5630660962519</v>
       </c>
       <c r="E23" t="n">
-        <v>34.31465285444516</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="F23" t="n">
-        <v>34.31465285444516</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="G23" t="n">
-        <v>34.31465285444516</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="H23" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I23" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P23" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q23" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T23" t="n">
-        <v>1195.201146295157</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="U23" t="n">
-        <v>1195.201146295157</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="V23" t="n">
-        <v>1159.109798081508</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="W23" t="n">
-        <v>1159.109798081508</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="X23" t="n">
-        <v>795.6929149555422</v>
+        <v>1318.710103892666</v>
       </c>
       <c r="Y23" t="n">
-        <v>409.5458771591282</v>
+        <v>932.5630660962519</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.5472138633866</v>
+        <v>558.0702472390352</v>
       </c>
       <c r="C24" t="n">
-        <v>153.1349395963503</v>
+        <v>368.657972971999</v>
       </c>
       <c r="D24" t="n">
-        <v>153.1349395963503</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E24" t="n">
-        <v>153.1349395963503</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F24" t="n">
-        <v>153.1349395963503</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G24" t="n">
         <v>34.31465285444516</v>
@@ -6074,46 +6074,46 @@
         <v>215.5091216889814</v>
       </c>
       <c r="L24" t="n">
-        <v>498.4142537443595</v>
+        <v>304.6946924676443</v>
       </c>
       <c r="M24" t="n">
-        <v>873.305863297421</v>
+        <v>679.5863020207058</v>
       </c>
       <c r="N24" t="n">
-        <v>1082.820066520716</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O24" t="n">
-        <v>1395.95310056761</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P24" t="n">
-        <v>1625.19346494006</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q24" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440572</v>
+        <v>1694.233074980021</v>
       </c>
       <c r="S24" t="n">
-        <v>1448.884598007117</v>
+        <v>1694.233074980021</v>
       </c>
       <c r="T24" t="n">
-        <v>1448.884598007117</v>
+        <v>1694.233074980021</v>
       </c>
       <c r="U24" t="n">
-        <v>1209.311472334664</v>
+        <v>1694.233074980021</v>
       </c>
       <c r="V24" t="n">
-        <v>966.2317542382978</v>
+        <v>1451.153356883655</v>
       </c>
       <c r="W24" t="n">
-        <v>966.2317542382978</v>
+        <v>1181.754787613946</v>
       </c>
       <c r="X24" t="n">
-        <v>746.7237598549941</v>
+        <v>962.2467932306427</v>
       </c>
       <c r="Y24" t="n">
-        <v>521.0830667903217</v>
+        <v>736.6061001659702</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
         <v>34.31465285444516</v>
@@ -6150,7 +6150,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L25" t="n">
         <v>105.4471208306432</v>
@@ -6171,28 +6171,28 @@
         <v>334.857675380022</v>
       </c>
       <c r="R25" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="S25" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="T25" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="U25" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="V25" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="W25" t="n">
-        <v>202.4532194928011</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="X25" t="n">
-        <v>202.4532194928011</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>255.102287405427</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="C26" t="n">
-        <v>255.102287405427</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="D26" t="n">
-        <v>255.102287405427</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="E26" t="n">
-        <v>255.102287405427</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F26" t="n">
-        <v>255.102287405427</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G26" t="n">
         <v>34.31465285444516</v>
@@ -6226,19 +6226,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K26" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389719</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M26" t="n">
         <v>856.6460009292779</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O26" t="n">
         <v>1460.632785841149</v>
@@ -6250,28 +6250,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S26" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T26" t="n">
-        <v>1195.201146295157</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U26" t="n">
-        <v>942.6401640759908</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V26" t="n">
-        <v>618.5191705313928</v>
+        <v>1536.975697453057</v>
       </c>
       <c r="W26" t="n">
-        <v>618.5191705313928</v>
+        <v>1536.975697453057</v>
       </c>
       <c r="X26" t="n">
-        <v>255.102287405427</v>
+        <v>1173.558814327091</v>
       </c>
       <c r="Y26" t="n">
-        <v>255.102287405427</v>
+        <v>787.411776530677</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37.67820428854765</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="C27" t="n">
-        <v>34.31465285444516</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="D27" t="n">
-        <v>34.31465285444516</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="E27" t="n">
-        <v>34.31465285444516</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F27" t="n">
-        <v>34.31465285444516</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G27" t="n">
         <v>34.31465285444516</v>
@@ -6317,7 +6317,7 @@
         <v>712.2060427186984</v>
       </c>
       <c r="N27" t="n">
-        <v>1115.43980721871</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O27" t="n">
         <v>1395.95310056761</v>
@@ -6338,19 +6338,19 @@
         <v>1234.878304775051</v>
       </c>
       <c r="U27" t="n">
-        <v>995.3051791025982</v>
+        <v>1141.459146967458</v>
       </c>
       <c r="V27" t="n">
-        <v>752.2254610062323</v>
+        <v>1141.459146967458</v>
       </c>
       <c r="W27" t="n">
-        <v>482.8268917365236</v>
+        <v>1141.459146967458</v>
       </c>
       <c r="X27" t="n">
-        <v>263.31889735322</v>
+        <v>921.9511525841542</v>
       </c>
       <c r="Y27" t="n">
-        <v>37.67820428854765</v>
+        <v>696.3104595194818</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="C28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="D28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F28" t="n">
         <v>34.31465285444516</v>
@@ -6408,28 +6408,28 @@
         <v>334.857675380022</v>
       </c>
       <c r="R28" t="n">
-        <v>158.7019259655664</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S28" t="n">
-        <v>158.7019259655664</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T28" t="n">
-        <v>158.7019259655664</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="X28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1150.856285470723</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C29" t="n">
-        <v>797.1133588230673</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D29" t="n">
-        <v>455.9293591844538</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E29" t="n">
-        <v>455.9293591844538</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F29" t="n">
-        <v>455.9293591844538</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G29" t="n">
         <v>34.31465285444516</v>
@@ -6463,19 +6463,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K29" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L29" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M29" t="n">
         <v>856.6460009292779</v>
       </c>
       <c r="N29" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
         <v>1460.632785841149</v>
@@ -6487,28 +6487,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1610.227176505315</v>
+        <v>1660.436726282139</v>
       </c>
       <c r="S29" t="n">
-        <v>1610.227176505315</v>
+        <v>1463.758142986972</v>
       </c>
       <c r="T29" t="n">
-        <v>1610.227176505315</v>
+        <v>1463.758142986972</v>
       </c>
       <c r="U29" t="n">
-        <v>1357.666194286149</v>
+        <v>1463.758142986972</v>
       </c>
       <c r="V29" t="n">
-        <v>1150.856285470723</v>
+        <v>1139.637149442374</v>
       </c>
       <c r="W29" t="n">
-        <v>1150.856285470723</v>
+        <v>798.327590022408</v>
       </c>
       <c r="X29" t="n">
-        <v>1150.856285470723</v>
+        <v>798.327590022408</v>
       </c>
       <c r="Y29" t="n">
-        <v>1150.856285470723</v>
+        <v>412.180552225994</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>207.8778567330307</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="C30" t="n">
-        <v>207.8778567330307</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D30" t="n">
-        <v>207.8778567330307</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E30" t="n">
-        <v>34.31465285444516</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F30" t="n">
         <v>34.31465285444516</v>
@@ -6542,19 +6542,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K30" t="n">
-        <v>34.31465285444516</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L30" t="n">
-        <v>317.2197849098233</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M30" t="n">
-        <v>692.1113944628848</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N30" t="n">
-        <v>1095.345158962896</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O30" t="n">
         <v>1395.95310056761</v>
@@ -6566,28 +6566,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S30" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T30" t="n">
-        <v>1234.878304775051</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U30" t="n">
-        <v>995.3051791025982</v>
+        <v>1476.159517049805</v>
       </c>
       <c r="V30" t="n">
-        <v>752.2254610062323</v>
+        <v>1422.168798899375</v>
       </c>
       <c r="W30" t="n">
-        <v>605.9217040432694</v>
+        <v>1152.770229629666</v>
       </c>
       <c r="X30" t="n">
-        <v>386.4137096599658</v>
+        <v>933.2622352463625</v>
       </c>
       <c r="Y30" t="n">
-        <v>386.4137096599658</v>
+        <v>707.6215421816901</v>
       </c>
     </row>
     <row r="31">
@@ -6642,10 +6642,10 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R31" t="n">
-        <v>260.97555818097</v>
+        <v>258.475718923377</v>
       </c>
       <c r="S31" t="n">
         <v>258.475718923377</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.31465285444516</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="C32" t="n">
-        <v>34.31465285444516</v>
+        <v>891.0812869404447</v>
       </c>
       <c r="D32" t="n">
-        <v>34.31465285444516</v>
+        <v>891.0812869404447</v>
       </c>
       <c r="E32" t="n">
-        <v>34.31465285444516</v>
+        <v>891.0812869404447</v>
       </c>
       <c r="F32" t="n">
-        <v>34.31465285444516</v>
+        <v>483.8093176070977</v>
       </c>
       <c r="G32" t="n">
-        <v>34.31465285444516</v>
+        <v>483.8093176070977</v>
       </c>
       <c r="H32" t="n">
-        <v>34.31465285444516</v>
+        <v>148.1750197838606</v>
       </c>
       <c r="I32" t="n">
         <v>34.31465285444516</v>
@@ -6724,28 +6724,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T32" t="n">
-        <v>1195.201146295157</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U32" t="n">
-        <v>942.6401640759908</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="V32" t="n">
-        <v>618.5191705313928</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="W32" t="n">
-        <v>277.2096111114262</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="X32" t="n">
-        <v>34.31465285444516</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="Y32" t="n">
-        <v>34.31465285444516</v>
+        <v>1244.8242135881</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>518.127006548759</v>
+        <v>477.3251905852854</v>
       </c>
       <c r="C33" t="n">
-        <v>518.127006548759</v>
+        <v>287.9129163182491</v>
       </c>
       <c r="D33" t="n">
-        <v>357.3468903097908</v>
+        <v>127.1328000792809</v>
       </c>
       <c r="E33" t="n">
-        <v>183.7836864312052</v>
+        <v>127.1328000792809</v>
       </c>
       <c r="F33" t="n">
-        <v>183.7836864312052</v>
+        <v>127.1328000792809</v>
       </c>
       <c r="G33" t="n">
         <v>34.31465285444516</v>
@@ -6779,25 +6779,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K33" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L33" t="n">
-        <v>304.6946924676438</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M33" t="n">
-        <v>679.5863020207054</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N33" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O33" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P33" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q33" t="n">
         <v>1715.732642722258</v>
@@ -6809,22 +6809,22 @@
         <v>1448.884598007117</v>
       </c>
       <c r="T33" t="n">
-        <v>1234.878304775051</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U33" t="n">
-        <v>995.3051791025982</v>
+        <v>1209.311472334664</v>
       </c>
       <c r="V33" t="n">
-        <v>752.2254610062323</v>
+        <v>966.2317542382978</v>
       </c>
       <c r="W33" t="n">
-        <v>752.2254610062323</v>
+        <v>696.8331849685891</v>
       </c>
       <c r="X33" t="n">
-        <v>743.7676996134314</v>
+        <v>477.3251905852854</v>
       </c>
       <c r="Y33" t="n">
-        <v>518.127006548759</v>
+        <v>477.3251905852854</v>
       </c>
     </row>
     <row r="34">
@@ -6879,31 +6879,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R34" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S34" t="n">
-        <v>84.81980876651434</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="T34" t="n">
-        <v>84.81980876651434</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="U34" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="V34" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="W34" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="X34" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231972</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>938.1127679116282</v>
+        <v>937.2897293861342</v>
       </c>
       <c r="C35" t="n">
-        <v>938.1127679116282</v>
+        <v>937.2897293861342</v>
       </c>
       <c r="D35" t="n">
-        <v>596.9287682730148</v>
+        <v>937.2897293861342</v>
       </c>
       <c r="E35" t="n">
-        <v>221.6975439683318</v>
+        <v>562.0585050814512</v>
       </c>
       <c r="F35" t="n">
-        <v>221.6975439683318</v>
+        <v>562.0585050814512</v>
       </c>
       <c r="G35" t="n">
-        <v>221.6975439683318</v>
+        <v>140.4437987514426</v>
       </c>
       <c r="H35" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I35" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602939</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8975067193755</v>
+        <v>253.8975067193745</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389726</v>
+        <v>525.5283691389716</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292787</v>
+        <v>856.6460009292774</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P35" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q35" t="n">
         <v>1715.732642722258</v>
@@ -6967,22 +6967,22 @@
         <v>1519.054059427092</v>
       </c>
       <c r="T35" t="n">
-        <v>1519.054059427092</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U35" t="n">
-        <v>1266.493077207926</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="V35" t="n">
-        <v>942.372083663328</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="W35" t="n">
-        <v>938.1127679116282</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="X35" t="n">
-        <v>938.1127679116282</v>
+        <v>937.2897293861342</v>
       </c>
       <c r="Y35" t="n">
-        <v>938.1127679116282</v>
+        <v>937.2897293861342</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>813.8951292517472</v>
+        <v>521.6214832968421</v>
       </c>
       <c r="C36" t="n">
-        <v>624.4828549847109</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7027387457426</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="E36" t="n">
-        <v>463.7027387457426</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F36" t="n">
-        <v>303.2750224629867</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G36" t="n">
-        <v>153.8059888862266</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H36" t="n">
         <v>34.31465285444516</v>
@@ -7028,40 +7028,40 @@
         <v>873.305863297421</v>
       </c>
       <c r="N36" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O36" t="n">
-        <v>1589.672661844326</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P36" t="n">
-        <v>1625.193464940061</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q36" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S36" t="n">
-        <v>1536.658373288803</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T36" t="n">
-        <v>1536.658373288803</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="U36" t="n">
-        <v>1297.08524761635</v>
+        <v>1388.385741768119</v>
       </c>
       <c r="V36" t="n">
-        <v>1054.005529519984</v>
+        <v>1145.306023671753</v>
       </c>
       <c r="W36" t="n">
-        <v>1039.53582231642</v>
+        <v>1145.306023671753</v>
       </c>
       <c r="X36" t="n">
-        <v>1039.53582231642</v>
+        <v>925.7980292884497</v>
       </c>
       <c r="Y36" t="n">
-        <v>813.8951292517472</v>
+        <v>700.1573362237773</v>
       </c>
     </row>
     <row r="37">
@@ -7098,7 +7098,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>42.23041924514571</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L37" t="n">
         <v>105.4471208306432</v>
@@ -7122,25 +7122,25 @@
         <v>334.857675380022</v>
       </c>
       <c r="S37" t="n">
-        <v>334.857675380022</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="T37" t="n">
-        <v>334.857675380022</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="U37" t="n">
-        <v>43.32097474015927</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="V37" t="n">
-        <v>43.32097474015927</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="W37" t="n">
-        <v>43.32097474015927</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="X37" t="n">
-        <v>43.32097474015927</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1216.944255165456</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="C38" t="n">
-        <v>863.2013285178008</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2013285178008</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="E38" t="n">
-        <v>863.2013285178008</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="F38" t="n">
-        <v>455.9293591844538</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G38" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H38" t="n">
         <v>34.31465285444516</v>
@@ -7174,13 +7174,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M38" t="n">
         <v>856.6460009292778</v>
@@ -7207,19 +7207,19 @@
         <v>1715.732642722258</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722258</v>
+        <v>1526.784840933409</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722258</v>
+        <v>1526.784840933409</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722258</v>
+        <v>1526.784840933409</v>
       </c>
       <c r="X38" t="n">
-        <v>1594.810154537005</v>
+        <v>1163.367957807443</v>
       </c>
       <c r="Y38" t="n">
-        <v>1594.810154537005</v>
+        <v>777.2209200110292</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>711.30403408289</v>
+        <v>504.9915189529294</v>
       </c>
       <c r="C39" t="n">
-        <v>521.8917598158537</v>
+        <v>504.9915189529294</v>
       </c>
       <c r="D39" t="n">
-        <v>361.1116435768854</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="E39" t="n">
-        <v>187.5484396982999</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F39" t="n">
         <v>183.7836864312052</v>
@@ -7262,16 +7262,16 @@
         <v>498.4142537443595</v>
       </c>
       <c r="M39" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O39" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P39" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722258</v>
@@ -7283,22 +7283,22 @@
         <v>1627.958867440572</v>
       </c>
       <c r="T39" t="n">
-        <v>1627.958867440572</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U39" t="n">
-        <v>1627.958867440572</v>
+        <v>1398.074628597549</v>
       </c>
       <c r="V39" t="n">
-        <v>1384.879149344206</v>
+        <v>1398.074628597549</v>
       </c>
       <c r="W39" t="n">
-        <v>1115.480580074498</v>
+        <v>1128.67605932784</v>
       </c>
       <c r="X39" t="n">
-        <v>1115.480580074498</v>
+        <v>909.1680649445368</v>
       </c>
       <c r="Y39" t="n">
-        <v>889.8398870098251</v>
+        <v>683.5273718798644</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="C40" t="n">
-        <v>1547.594076083902</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="D40" t="n">
-        <v>1547.594076083902</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E40" t="n">
-        <v>1547.594076083902</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.794881312374</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="C41" t="n">
-        <v>1166.794881312374</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="D41" t="n">
-        <v>1166.794881312374</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="E41" t="n">
-        <v>791.5636570076908</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="F41" t="n">
-        <v>791.5636570076908</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="G41" t="n">
-        <v>369.9489506776823</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="H41" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I41" t="n">
         <v>34.31465285444516</v>
@@ -7423,7 +7423,7 @@
         <v>856.6460009292779</v>
       </c>
       <c r="N41" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O41" t="n">
         <v>1460.632785841149</v>
@@ -7435,28 +7435,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U41" t="n">
-        <v>1357.666194286149</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V41" t="n">
-        <v>1357.666194286149</v>
+        <v>1139.050666958493</v>
       </c>
       <c r="W41" t="n">
-        <v>1357.666194286149</v>
+        <v>797.7411075385269</v>
       </c>
       <c r="X41" t="n">
-        <v>1357.666194286149</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="Y41" t="n">
-        <v>1357.666194286149</v>
+        <v>557.3318417915689</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>908.3382686120787</v>
+        <v>384.5070433604496</v>
       </c>
       <c r="C42" t="n">
-        <v>718.9259943450423</v>
+        <v>195.0947690934134</v>
       </c>
       <c r="D42" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E42" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F42" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G42" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I42" t="n">
         <v>34.31465285444516</v>
@@ -7514,28 +7514,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S42" t="n">
-        <v>1536.658373288802</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T42" t="n">
-        <v>1322.652080056737</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U42" t="n">
-        <v>1322.652080056737</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="V42" t="n">
-        <v>1322.652080056737</v>
+        <v>931.2997304396877</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.253510787028</v>
+        <v>661.901161169979</v>
       </c>
       <c r="X42" t="n">
-        <v>1053.253510787028</v>
+        <v>661.901161169979</v>
       </c>
       <c r="Y42" t="n">
-        <v>1053.253510787028</v>
+        <v>436.2604681053066</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1660.279830822096</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="C43" t="n">
-        <v>1660.279830822096</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="D43" t="n">
-        <v>1660.279830822096</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E43" t="n">
-        <v>1660.279830822096</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L43" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O43" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.732642722258</v>
+        <v>260.97555818097</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="U43" t="n">
-        <v>1660.279830822096</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="V43" t="n">
-        <v>1660.279830822096</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="W43" t="n">
-        <v>1660.279830822096</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="X43" t="n">
-        <v>1660.279830822096</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="Y43" t="n">
-        <v>1660.279830822096</v>
+        <v>174.6448369134822</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>306.0886035251701</v>
+        <v>846.2142393373518</v>
       </c>
       <c r="C44" t="n">
-        <v>306.0886035251701</v>
+        <v>846.2142393373518</v>
       </c>
       <c r="D44" t="n">
-        <v>306.0886035251701</v>
+        <v>846.2142393373518</v>
       </c>
       <c r="E44" t="n">
-        <v>34.31465285444516</v>
+        <v>846.2142393373518</v>
       </c>
       <c r="F44" t="n">
-        <v>34.31465285444516</v>
+        <v>438.9422700040049</v>
       </c>
       <c r="G44" t="n">
         <v>34.31465285444516</v>
@@ -7648,10 +7648,10 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K44" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L44" t="n">
         <v>525.5283691389718</v>
@@ -7681,19 +7681,19 @@
         <v>1610.227176505315</v>
       </c>
       <c r="U44" t="n">
-        <v>1357.666194286149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V44" t="n">
-        <v>1033.545200741551</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W44" t="n">
-        <v>692.2356413215841</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X44" t="n">
-        <v>692.2356413215841</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="Y44" t="n">
-        <v>306.0886035251701</v>
+        <v>1224.080138708901</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>745.9717411220387</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="C45" t="n">
-        <v>556.5594668550024</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D45" t="n">
-        <v>395.7793506160341</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E45" t="n">
-        <v>222.2161467374486</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F45" t="n">
-        <v>222.2161467374486</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G45" t="n">
-        <v>72.74711316068846</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H45" t="n">
         <v>34.31465285444516</v>
@@ -7730,49 +7730,49 @@
         <v>54.40930111025867</v>
       </c>
       <c r="K45" t="n">
-        <v>54.40930111025867</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L45" t="n">
-        <v>337.3144331656368</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M45" t="n">
-        <v>712.2060427186984</v>
+        <v>679.5863020207049</v>
       </c>
       <c r="N45" t="n">
-        <v>1115.43980721871</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O45" t="n">
-        <v>1428.572841265604</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P45" t="n">
-        <v>1657.813205638054</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S45" t="n">
-        <v>1448.884598007116</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T45" t="n">
-        <v>1234.878304775051</v>
+        <v>1459.672955220218</v>
       </c>
       <c r="U45" t="n">
-        <v>1234.878304775051</v>
+        <v>1220.099829547765</v>
       </c>
       <c r="V45" t="n">
-        <v>1234.878304775051</v>
+        <v>977.0201114513987</v>
       </c>
       <c r="W45" t="n">
-        <v>965.4797355053423</v>
+        <v>707.6215421816901</v>
       </c>
       <c r="X45" t="n">
-        <v>745.9717411220387</v>
+        <v>707.6215421816901</v>
       </c>
       <c r="Y45" t="n">
-        <v>745.9717411220387</v>
+        <v>707.6215421816901</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L46" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M46" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N46" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O46" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V46" t="n">
-        <v>1576.889614169534</v>
+        <v>87.27281155734536</v>
       </c>
       <c r="W46" t="n">
-        <v>1576.889614169534</v>
+        <v>87.27281155734536</v>
       </c>
       <c r="X46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
   </sheetData>
@@ -8774,7 +8774,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>44.62821923470642</v>
+        <v>136.0819341662189</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131759</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8941,7 +8941,7 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O14" t="n">
-        <v>246.758517458259</v>
+        <v>246.7585174582592</v>
       </c>
       <c r="P14" t="n">
         <v>208.5255628951208</v>
@@ -9017,13 +9017,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>114.9375340526873</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>10.68754955674461</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9245,7 +9245,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9260,7 +9260,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>173.4146410504032</v>
+        <v>10.68754955674435</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9479,19 +9479,19 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>301.77688131</v>
+        <v>289.1252727825459</v>
       </c>
       <c r="N21" t="n">
-        <v>114.9375340526873</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9722,13 +9722,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3045437566416</v>
+        <v>44.62821923470698</v>
       </c>
       <c r="M24" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>114.9375340526877</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9965,10 +9965,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>310.6138585746227</v>
+        <v>277.6646255463469</v>
       </c>
       <c r="O27" t="n">
-        <v>222.2735498630448</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
         <v>206.3638740786793</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10202,10 +10202,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O30" t="n">
-        <v>242.5711743638668</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
         <v>206.3638740786793</v>
@@ -10427,13 +10427,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K33" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L33" t="n">
-        <v>44.62821923470651</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
         <v>301.77688131</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10676,13 +10676,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O36" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>10.68754955674481</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1300824528302</v>
@@ -10831,7 +10831,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M38" t="n">
-        <v>291.2847697033555</v>
+        <v>291.2847697033554</v>
       </c>
       <c r="N38" t="n">
         <v>283.4008070189657</v>
@@ -10910,10 +10910,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M39" t="n">
-        <v>301.77688131</v>
+        <v>197.5542717195775</v>
       </c>
       <c r="N39" t="n">
-        <v>114.9375340526873</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11071,7 +11071,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N41" t="n">
-        <v>283.4008070189657</v>
+        <v>283.4008070189656</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
@@ -11080,7 +11080,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.5801139476181</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11378,13 +11378,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M45" t="n">
-        <v>301.77688131</v>
+        <v>106.1005567880645</v>
       </c>
       <c r="N45" t="n">
         <v>310.6138585746227</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.1808494245539</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23260,13 +23260,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>79.73083514844234</v>
       </c>
       <c r="E11" t="n">
-        <v>15.76544517947991</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="12">
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>15.24703649414246</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>179.4695035836124</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>93.00459219947589</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
         <v>74.58429473553588</v>
@@ -23463,7 +23463,7 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>224.1841888012565</v>
@@ -23472,10 +23472,10 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6213336334641</v>
+        <v>165.4779332534542</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23497,25 +23497,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>58.52212890987769</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>216.8773565064083</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>28.90770316800365</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>118.2964226714636</v>
@@ -23624,10 +23624,10 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>229.0429292907067</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>168.0550137836253</v>
@@ -23676,7 +23676,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706152</v>
+        <v>59.71523619589788</v>
       </c>
       <c r="R16" t="n">
         <v>174.3941919203111</v>
@@ -23706,7 +23706,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U16" t="n">
         <v>288.6213336334641</v>
@@ -23718,7 +23718,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
-        <v>145.3842603086282</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
         <v>217.1412728141684</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
         <v>350.2054973811788</v>
@@ -23740,7 +23740,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.1639724458418</v>
+        <v>201.5592880683248</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
-        <v>178.8672507836808</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>382.2855674184499</v>
@@ -23813,13 +23813,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>221.4582282608805</v>
+        <v>221.5833568903734</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>174.3941919203111</v>
+        <v>167.1411684612199</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
@@ -23952,13 +23952,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>290.1005996173323</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.0156079746367</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>115.0347903601244</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
         <v>332.2779548450047</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
         <v>216.1639724458418</v>
@@ -24031,13 +24031,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24050,19 +24050,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>70.18472425628315</v>
       </c>
       <c r="D21" t="n">
-        <v>120.7266632547385</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>118.2964226714636</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
-        <v>145.1826502507107</v>
+        <v>15.7000717340149</v>
       </c>
       <c r="E22" t="n">
         <v>141.676141212225</v>
@@ -24141,7 +24141,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>160.0829940331247</v>
@@ -24177,13 +24177,13 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T22" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U22" t="n">
-        <v>215.2679301343996</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24223,10 +24223,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>285.1493488776394</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>182.8943732992515</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24290,16 +24290,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>30.34225936650637</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
         <v>118.2964226714636</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>65.61146546405367</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
         <v>145.1826502507107</v>
@@ -24411,7 +24411,7 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R25" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>224.1841888012565</v>
@@ -24426,13 +24426,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>159.2302957609866</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>93.99787243415841</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
@@ -24451,13 +24451,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>198.8188010612365</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
         <v>332.2779548450047</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>143.9104077926431</v>
       </c>
       <c r="W26" t="n">
         <v>337.8964638257669</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>184.1882356046044</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>118.2964226714636</v>
@@ -24578,13 +24578,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>144.692428186211</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>168.0550137836253</v>
@@ -24648,7 +24648,7 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S28" t="n">
         <v>224.1841888012565</v>
@@ -24657,13 +24657,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>165.4779332534541</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>131.6999970074609</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
         <v>371.4789120616362</v>
@@ -24694,7 +24694,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
         <v>332.2779548450047</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>49.70745427905539</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>116.1379738818802</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24764,13 +24764,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>147.9743432409925</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>187.1981099464766</v>
       </c>
       <c r="W30" t="n">
-        <v>121.8638641836783</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R31" t="n">
-        <v>174.3941919203111</v>
+        <v>98.77605502823252</v>
       </c>
       <c r="S31" t="n">
-        <v>221.7093479362395</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T31" t="n">
         <v>221.0023972007068</v>
@@ -24919,7 +24919,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>337.7721596422273</v>
@@ -24928,16 +24928,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027478</v>
+        <v>72.78729894262649</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>119.3167056202949</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
         <v>382.2855674184499</v>
@@ -24998,19 +24998,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>56.08437748840512</v>
       </c>
       <c r="H33" t="n">
         <v>118.2964226714636</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>208.9397306605977</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>104.2635171659035</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
-        <v>238.6212292805156</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25159,7 +25159,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>332.2779548450047</v>
+        <v>227.2101004069772</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>333.6797412315841</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>382.2855674184499</v>
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>183.7097435871134</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
         <v>80.84345120350706</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
         <v>211.8662302997449</v>
@@ -25295,10 +25295,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>252.379573445483</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>168.7006619981111</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -25362,13 +25362,13 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S37" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25380,7 +25380,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.1412728141684</v>
+        <v>143.7878693151039</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
         <v>337.7721596422273</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>185.5090622027478</v>
@@ -25447,7 +25447,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>62.97704862601438</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25456,10 +25456,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>240.069450991306</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25472,16 +25472,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>155.0963333855047</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25523,19 +25523,19 @@
         <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>221.4582282608807</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>7.846470890097919</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25560,7 +25560,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>7.846470890097834</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>168.0550137836253</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.1246405337965</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
         <v>350.2054973811788</v>
@@ -25636,19 +25636,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
         <v>194.7117974622146</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>121.7775412052177</v>
       </c>
       <c r="Y41" t="n">
         <v>382.2855674184499</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33.28440464446584</v>
+        <v>125.5146039002573</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25797,10 +25797,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
@@ -25809,7 +25809,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>174.3941919203111</v>
+        <v>88.92677786549818</v>
       </c>
       <c r="S43" t="n">
         <v>224.1841888012565</v>
@@ -25842,7 +25842,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>233.7230498523039</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25873,13 +25873,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>102.4227008976185</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>16.81721828864443</v>
       </c>
       <c r="H44" t="n">
         <v>332.2779548450047</v>
@@ -25921,13 +25921,13 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25955,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>80.24828696828274</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
         <v>80.84345120350706</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>135.6506664118464</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -26040,7 +26040,7 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I46" t="n">
         <v>145.433169315347</v>
@@ -26070,7 +26070,7 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R46" t="n">
-        <v>36.93959365311451</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S46" t="n">
         <v>224.1841888012565</v>
@@ -26082,13 +26082,13 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V46" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
-        <v>221.9194554082425</v>
+        <v>169.4908782923713</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>562684.2623134338</v>
+        <v>562684.2623134336</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>562684.2623134336</v>
+        <v>562684.2623134337</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>562684.2623134338</v>
+        <v>562684.2623134337</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>562684.2623134336</v>
+        <v>562684.2623134338</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>562684.2623134335</v>
+        <v>562684.2623134337</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>562684.2623134337</v>
+        <v>562684.2623134336</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>562684.2623134337</v>
+        <v>562684.2623134338</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>562684.2623134338</v>
+        <v>562684.2623134336</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>562684.2623134338</v>
+        <v>562684.2623134337</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>661448.9963823445</v>
+        <v>661448.9963823446</v>
       </c>
       <c r="C2" t="n">
-        <v>661448.9963823445</v>
+        <v>661448.9963823447</v>
       </c>
       <c r="D2" t="n">
         <v>661448.9963823446</v>
       </c>
       <c r="E2" t="n">
+        <v>375693.187689395</v>
+      </c>
+      <c r="F2" t="n">
+        <v>375693.1876893951</v>
+      </c>
+      <c r="G2" t="n">
         <v>375693.1876893953</v>
-      </c>
-      <c r="F2" t="n">
-        <v>375693.1876893953</v>
-      </c>
-      <c r="G2" t="n">
-        <v>375693.1876893954</v>
       </c>
       <c r="H2" t="n">
         <v>375693.1876893953</v>
       </c>
       <c r="I2" t="n">
+        <v>375693.1876893954</v>
+      </c>
+      <c r="J2" t="n">
         <v>375693.1876893953</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>375693.1876893954</v>
+      </c>
+      <c r="L2" t="n">
+        <v>375693.1876893953</v>
+      </c>
+      <c r="M2" t="n">
         <v>375693.1876893952</v>
-      </c>
-      <c r="K2" t="n">
-        <v>375693.1876893953</v>
-      </c>
-      <c r="L2" t="n">
-        <v>375693.1876893952</v>
-      </c>
-      <c r="M2" t="n">
-        <v>375693.1876893954</v>
       </c>
       <c r="N2" t="n">
         <v>375693.1876893953</v>
       </c>
       <c r="O2" t="n">
-        <v>375693.1876893951</v>
+        <v>375693.1876893954</v>
       </c>
       <c r="P2" t="n">
-        <v>375693.1876893953</v>
+        <v>375693.1876893954</v>
       </c>
     </row>
     <row r="3">
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>440811.1417349352</v>
+        <v>440811.1417349353</v>
       </c>
       <c r="C4" t="n">
-        <v>440811.1417349352</v>
+        <v>440811.1417349353</v>
       </c>
       <c r="D4" t="n">
-        <v>440811.1417349352</v>
+        <v>440811.1417349353</v>
       </c>
       <c r="E4" t="n">
-        <v>62081.74846591302</v>
+        <v>62081.74846591303</v>
       </c>
       <c r="F4" t="n">
-        <v>62081.74846591302</v>
+        <v>62081.74846591304</v>
       </c>
       <c r="G4" t="n">
-        <v>62081.74846591302</v>
+        <v>62081.74846591303</v>
       </c>
       <c r="H4" t="n">
-        <v>62081.74846591302</v>
+        <v>62081.74846591303</v>
       </c>
       <c r="I4" t="n">
-        <v>62081.74846591302</v>
+        <v>62081.74846591303</v>
       </c>
       <c r="J4" t="n">
-        <v>62081.74846591302</v>
+        <v>62081.74846591303</v>
       </c>
       <c r="K4" t="n">
         <v>62081.74846591303</v>
       </c>
       <c r="L4" t="n">
-        <v>62081.74846591302</v>
+        <v>62081.74846591303</v>
       </c>
       <c r="M4" t="n">
         <v>62081.74846591303</v>
@@ -26456,10 +26456,10 @@
         <v>62081.74846591302</v>
       </c>
       <c r="O4" t="n">
-        <v>62081.74846591301</v>
+        <v>62081.74846591302</v>
       </c>
       <c r="P4" t="n">
-        <v>62081.74846591302</v>
+        <v>62081.74846591303</v>
       </c>
     </row>
     <row r="5">
@@ -26481,16 +26481,16 @@
         <v>36091.33751189044</v>
       </c>
       <c r="F5" t="n">
-        <v>36091.33751189044</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="G5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="H5" t="n">
-        <v>36091.33751189044</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="J5" t="n">
         <v>36091.33751189045</v>
@@ -26502,7 +26502,7 @@
         <v>36091.33751189045</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="N5" t="n">
         <v>36091.33751189045</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>187010.2546474093</v>
+        <v>186965.5908053574</v>
       </c>
       <c r="C6" t="n">
-        <v>187010.2546474093</v>
+        <v>186965.5908053575</v>
       </c>
       <c r="D6" t="n">
-        <v>187010.2546474094</v>
+        <v>186965.5908053574</v>
       </c>
       <c r="E6" t="n">
-        <v>-219533.0501059004</v>
+        <v>-229102.907571051</v>
       </c>
       <c r="F6" t="n">
-        <v>277520.1017115918</v>
+        <v>267950.2442464413</v>
       </c>
       <c r="G6" t="n">
-        <v>277520.101711592</v>
+        <v>267950.2442464416</v>
       </c>
       <c r="H6" t="n">
-        <v>277520.1017115918</v>
+        <v>267950.2442464416</v>
       </c>
       <c r="I6" t="n">
-        <v>277520.1017115919</v>
+        <v>267950.2442464417</v>
       </c>
       <c r="J6" t="n">
-        <v>277520.1017115917</v>
+        <v>267950.2442464416</v>
       </c>
       <c r="K6" t="n">
-        <v>277520.1017115918</v>
+        <v>267950.2442464417</v>
       </c>
       <c r="L6" t="n">
-        <v>277520.1017115917</v>
+        <v>267950.2442464416</v>
       </c>
       <c r="M6" t="n">
-        <v>170628.2423373526</v>
+        <v>161058.3848722022</v>
       </c>
       <c r="N6" t="n">
-        <v>277520.1017115918</v>
+        <v>267950.2442464416</v>
       </c>
       <c r="O6" t="n">
-        <v>277520.1017115916</v>
+        <v>267950.2442464417</v>
       </c>
       <c r="P6" t="n">
-        <v>277520.1017115919</v>
+        <v>267950.2442464417</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>459.2752909409235</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="G3" t="n">
         <v>459.2752909409236</v>
@@ -26801,16 +26801,16 @@
         <v>428.9331606805644</v>
       </c>
       <c r="F4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="G4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="H4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="I4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="J4" t="n">
         <v>428.9331606805645</v>
@@ -26822,7 +26822,7 @@
         <v>428.9331606805645</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="N4" t="n">
         <v>428.9331606805644</v>
@@ -31995,7 +31995,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J14" t="n">
         <v>156.7051908522501</v>
@@ -32004,10 +32004,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L14" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N14" t="n">
         <v>329.4457823148396</v>
@@ -32022,13 +32022,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R14" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H15" t="n">
         <v>9.54079425143315</v>
@@ -32077,7 +32077,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
@@ -32101,7 +32101,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S15" t="n">
         <v>18.34934770881896</v>
@@ -32110,7 +32110,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H16" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I16" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M16" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N16" t="n">
         <v>126.7373929903044</v>
@@ -32189,7 +32189,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>90.08643512996198</v>
+        <v>181.5401500614745</v>
       </c>
       <c r="M12" t="n">
         <v>378.6783934879409</v>
@@ -35509,7 +35509,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151262</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K14" t="n">
         <v>176.3970685286315</v>
@@ -35655,19 +35655,19 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M14" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N14" t="n">
         <v>332.9626517459644</v>
       </c>
       <c r="O14" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811784</v>
       </c>
       <c r="P14" t="n">
         <v>191.9262766422084</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082171</v>
       </c>
       <c r="K15" t="n">
         <v>162.7270914936593</v>
@@ -35737,16 +35737,16 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N15" t="n">
-        <v>211.6305083063586</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O15" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P15" t="n">
-        <v>231.5559236085354</v>
+        <v>35.87959908660067</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151262</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M16" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144092</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L18" t="n">
         <v>285.7627596518971</v>
@@ -35980,7 +35980,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P18" t="n">
-        <v>198.6066905802593</v>
+        <v>35.87959908660044</v>
       </c>
       <c r="Q18" t="n">
         <v>91.45371493151264</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M21" t="n">
-        <v>378.6783934879409</v>
+        <v>366.0267849604869</v>
       </c>
       <c r="N21" t="n">
-        <v>211.6305083063586</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O21" t="n">
         <v>316.2959939867616</v>
@@ -36442,13 +36442,13 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L24" t="n">
-        <v>285.7627596518971</v>
+        <v>90.08643512996257</v>
       </c>
       <c r="M24" t="n">
         <v>378.6783934879409</v>
       </c>
       <c r="N24" t="n">
-        <v>211.630508306359</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O24" t="n">
         <v>316.2959939867616</v>
@@ -36685,10 +36685,10 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N27" t="n">
-        <v>407.306832828294</v>
+        <v>374.3575998000182</v>
       </c>
       <c r="O27" t="n">
-        <v>283.3467609584857</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P27" t="n">
         <v>231.5559236085354</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518971</v>
@@ -36922,10 +36922,10 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N30" t="n">
-        <v>407.306832828294</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O30" t="n">
-        <v>303.6443854593077</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
         <v>231.5559236085354</v>
@@ -37080,7 +37080,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N32" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O32" t="n">
         <v>277.1250097811782</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L33" t="n">
-        <v>90.0864351299621</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M33" t="n">
         <v>378.6783934879409</v>
@@ -37168,7 +37168,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N36" t="n">
-        <v>407.306832828294</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O36" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P36" t="n">
-        <v>35.8795990866009</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q36" t="n">
         <v>91.45371493151264</v>
@@ -37551,7 +37551,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M38" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N38" t="n">
         <v>332.9626517459644</v>
@@ -37630,10 +37630,10 @@
         <v>285.7627596518971</v>
       </c>
       <c r="M39" t="n">
-        <v>378.6783934879409</v>
+        <v>274.4557838975185</v>
       </c>
       <c r="N39" t="n">
-        <v>211.6305083063586</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O39" t="n">
         <v>316.2959939867616</v>
@@ -37642,7 +37642,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N41" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O41" t="n">
         <v>277.1250097811782</v>
@@ -37800,7 +37800,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.75034647002249</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L45" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M45" t="n">
-        <v>378.6783934879409</v>
+        <v>183.0020689660055</v>
       </c>
       <c r="N45" t="n">
         <v>407.306832828294</v>
@@ -38116,7 +38116,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.50448190323635</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
